--- a/Models.xlsx
+++ b/Models.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\smore\esim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A77D8B4-051A-4F22-BBFD-0B79A423A4BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45E83295-E108-414B-8D99-519FAB464F41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="309" yWindow="4363" windowWidth="24685" windowHeight="13148" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="737" yWindow="4363" windowWidth="24686" windowHeight="13148" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Drives" sheetId="1" r:id="rId1"/>
+    <sheet name="RAID_DP" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <t>Sequential</t>
   </si>
@@ -63,25 +64,62 @@
   </si>
   <si>
     <t>Bandwidth</t>
+  </si>
+  <si>
+    <t>Sequential Read</t>
+  </si>
+  <si>
+    <t>IOPS</t>
+  </si>
+  <si>
+    <t>RAID_DP</t>
+  </si>
+  <si>
+    <t>Data Disks</t>
+  </si>
+  <si>
+    <t>Parity Disks</t>
+  </si>
+  <si>
+    <t>IOPS per Data Disk</t>
+  </si>
+  <si>
+    <t>MBPS per Data Disk</t>
+  </si>
+  <si>
+    <t>Sequential Write</t>
+  </si>
+  <si>
+    <t>Workload</t>
+  </si>
+  <si>
+    <t>IOPS for horizontal parity</t>
+  </si>
+  <si>
+    <t>IOPS for diagonal parity</t>
+  </si>
+  <si>
+    <t>=</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="10">
-    <numFmt numFmtId="167" formatCode="0\ &quot; MB/s&quot;"/>
-    <numFmt numFmtId="168" formatCode="0\ &quot;MB/s&quot;"/>
-    <numFmt numFmtId="169" formatCode="0\ &quot; IOPS&quot;"/>
-    <numFmt numFmtId="170" formatCode="0&quot; KB&quot;"/>
-    <numFmt numFmtId="171" formatCode="0&quot; IOPS&quot;"/>
-    <numFmt numFmtId="172" formatCode="0&quot; MBPS&quot;"/>
-    <numFmt numFmtId="173" formatCode="0.000000"/>
-    <numFmt numFmtId="174" formatCode="0.000000&quot; seconds&quot;"/>
-    <numFmt numFmtId="175" formatCode="0.00000000"/>
-    <numFmt numFmtId="179" formatCode="0.000000000&quot; seconds&quot;"/>
+  <numFmts count="11">
+    <numFmt numFmtId="164" formatCode="0\ &quot; MB/s&quot;"/>
+    <numFmt numFmtId="165" formatCode="0\ &quot;MB/s&quot;"/>
+    <numFmt numFmtId="166" formatCode="0\ &quot; IOPS&quot;"/>
+    <numFmt numFmtId="167" formatCode="0&quot; KB&quot;"/>
+    <numFmt numFmtId="168" formatCode="0&quot; IOPS&quot;"/>
+    <numFmt numFmtId="169" formatCode="0&quot; MBPS&quot;"/>
+    <numFmt numFmtId="170" formatCode="0.000000"/>
+    <numFmt numFmtId="171" formatCode="0.000000&quot; seconds&quot;"/>
+    <numFmt numFmtId="172" formatCode="0.00000000"/>
+    <numFmt numFmtId="173" formatCode="0.000000000&quot; seconds&quot;"/>
+    <numFmt numFmtId="174" formatCode="0&quot; MB/s&quot;"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -91,6 +129,13 @@
     </font>
     <font>
       <sz val="16"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -129,29 +174,38 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="171" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="174" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -434,191 +488,184 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.6" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="16.921875" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.921875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="15.53515625" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="20.53515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="2" t="s">
+      <c r="C1" s="17"/>
+      <c r="D1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2"/>
-    </row>
-    <row r="2" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="3" t="s">
+      <c r="E1" s="18"/>
+    </row>
+    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="str">
+      <c r="D2" s="16" t="str">
         <f>B2</f>
         <v>Read</v>
       </c>
-      <c r="E2" s="3" t="str">
+      <c r="E2" s="16" t="str">
         <f>C2</f>
         <v>Write</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="3">
         <v>3200</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="2">
         <v>3000</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="4">
         <v>800000</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="4">
         <v>120000</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="10">
         <v>64</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="10">
         <v>64</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="10">
         <v>4</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="10">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="7">
+      <c r="B5" s="5">
         <f>(B3*1024)/B4</f>
         <v>51200</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="5">
         <f>(C3*1024)/C4</f>
         <v>48000</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="6">
         <f>(D4*D3)/1024</f>
         <v>3125</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="6">
         <f>(E4*E3)/1024</f>
         <v>468.75</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="12">
         <f>(1/B5)</f>
         <v>1.953125E-5</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="12">
         <f>(1/C5)</f>
         <v>2.0833333333333333E-5</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="12">
         <f>(1/D3)</f>
         <v>1.2500000000000001E-6</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="12">
         <f>(1/E3)</f>
         <v>8.3333333333333337E-6</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="8">
         <f>B6-D6</f>
         <v>1.8281250000000001E-5</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="8">
         <f>C6-E6</f>
         <v>1.2499999999999999E-5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="15">
+      <c r="B8" s="13">
         <f>(B4-D4)/(B7*1024)</f>
         <v>3205.1282051282051</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="13">
         <f>(C4-E4)/(C7*1024)</f>
         <v>4687.5</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="D9" s="16">
+      <c r="D9" s="14">
         <f>B4/D4</f>
         <v>16</v>
       </c>
-      <c r="E9" s="16">
+      <c r="E9" s="14">
         <f>C4/E4</f>
         <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="D10" s="11">
+      <c r="D10" s="9">
         <f>(D9*D6)-B6</f>
         <v>4.6875000000000123E-7</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="9">
         <f>(E9*E6)-C6</f>
         <v>1.1250000000000001E-4</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="17">
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="15">
         <f>D10/(D9-1)</f>
         <v>3.1250000000000085E-8</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E11" s="8">
         <f>E10/(E9-1)</f>
         <v>7.500000000000001E-6</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="D13" s="10"/>
-      <c r="E13" s="9">
-        <f>E3/(1000000)</f>
-        <v>0.12</v>
-      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="7"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="D14" s="11"/>
-      <c r="E14">
-        <f>1/E13</f>
-        <v>8.3333333333333339</v>
-      </c>
+      <c r="D14" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -628,4 +675,180 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC34273C-147F-4313-8F89-7EFB65BA7236}">
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="21.69140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.07421875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="24" customFormat="1" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" s="23" customFormat="1" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="19">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="20">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" s="23" customFormat="1" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="5">
+        <f>(B5*1024)/B6</f>
+        <v>128000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="21">
+        <f>B8/B2</f>
+        <v>42666.666666666664</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="22">
+        <f>B5/B2</f>
+        <v>2666.6666666666665</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" s="23" customFormat="1" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="5">
+        <f>(B5*1024)/B6</f>
+        <v>128000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="4">
+        <f>B12/B2</f>
+        <v>42666.666666666664</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="5">
+        <f>B13</f>
+        <v>42666.666666666664</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A4:XFD4"/>
+    <mergeCell ref="A1:XFD1"/>
+    <mergeCell ref="A11:XFD11"/>
+    <mergeCell ref="A7:XFD7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="colorScale" priority="2" id="{EC5B1D82-EAE4-410E-8A2F-A1EE781AE71E}">
+            <x14:colorScale>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="formula">
+                <xm:f>Drives!$D$3</xm:f>
+              </x14:cfvo>
+              <x14:color rgb="FF00B050"/>
+              <x14:color rgb="FFFF0000"/>
+            </x14:colorScale>
+          </x14:cfRule>
+          <xm:sqref>B9</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="colorScale" priority="1" id="{DD9C630F-1456-47C0-8B84-48CBDC9B4108}">
+            <x14:colorScale>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="formula">
+                <xm:f>Drives!$B$3</xm:f>
+              </x14:cfvo>
+              <x14:color rgb="FF00B050"/>
+              <x14:color rgb="FFFF0000"/>
+            </x14:colorScale>
+          </x14:cfRule>
+          <xm:sqref>B10</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
 </file>